--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_20_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_20_9.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_3</t>
+          <t>model_20_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9904060075718443</v>
+        <v>0.9722507600952539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6886504190848454</v>
+        <v>0.8320416261011323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98655625778028</v>
+        <v>0.8144728908670175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9950879555411615</v>
+        <v>0.8710446049607224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9936166003330532</v>
+        <v>0.8515321187642333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06415507154335032</v>
+        <v>0.1855592950165382</v>
       </c>
       <c r="H2" t="n">
-        <v>2.081996081212636</v>
+        <v>1.123138419638928</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06039137149911077</v>
+        <v>0.5032162794282847</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02984812192018768</v>
+        <v>0.02629828685078923</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04511974670964922</v>
+        <v>0.264757283139537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2649523743460809</v>
+        <v>0.5269319803222934</v>
       </c>
       <c r="M2" t="n">
-        <v>0.253288514432357</v>
+        <v>0.430765939944813</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01771198602121</v>
+        <v>1.051229365977993</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2640715308712492</v>
+        <v>0.4491045378166886</v>
       </c>
       <c r="P2" t="n">
-        <v>79.49290426694343</v>
+        <v>77.36876159665377</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.5913097870668</v>
+        <v>122.4671671167772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_4</t>
+          <t>model_20_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914275571752234</v>
+        <v>0.9738629920590771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6885754270977469</v>
+        <v>0.8309054835810307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9843135132537696</v>
+        <v>0.8087086004694566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9940736277290561</v>
+        <v>0.6903958352533019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9924679211729444</v>
+        <v>0.8368186390667747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05732396464175119</v>
+        <v>0.1747782924508067</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08249755297567</v>
+        <v>1.130735809902303</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07046612714857647</v>
+        <v>0.5188511091896088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0360117021679774</v>
+        <v>0.06313856921013458</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05323894893086165</v>
+        <v>0.2909952874661554</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2477571128646806</v>
+        <v>0.6045537025053346</v>
       </c>
       <c r="M3" t="n">
-        <v>0.239424235702552</v>
+        <v>0.4180649380787711</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015826048291895</v>
+        <v>1.048252937737088</v>
       </c>
       <c r="O3" t="n">
-        <v>0.249617021092903</v>
+        <v>0.435862828006511</v>
       </c>
       <c r="P3" t="n">
-        <v>79.71807302320111</v>
+        <v>77.48847401707268</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.8164785433245</v>
+        <v>122.5868795371961</v>
       </c>
     </row>
     <row r="4">
@@ -632,327 +632,327 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9890362917696049</v>
+        <v>0.9745752931902458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6884258391464338</v>
+        <v>0.8291956476119998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9886898384456421</v>
+        <v>0.8013852501741099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9960538379856094</v>
+        <v>0.4578249423150643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9947097662581815</v>
+        <v>0.8179510937308417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07331436741988653</v>
+        <v>0.1700151315068361</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08349784829489</v>
+        <v>1.142169490900283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05080699681538653</v>
+        <v>0.5387146704006709</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02397892077511741</v>
+        <v>0.1105674965052747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03739292836411996</v>
+        <v>0.3246410834529728</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2841917551771014</v>
+        <v>0.6772956029643926</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2707662597516288</v>
+        <v>0.4123289118008051</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020240692117652</v>
+        <v>1.046937920264162</v>
       </c>
       <c r="O4" t="n">
-        <v>0.282293339992683</v>
+        <v>0.4298826072146806</v>
       </c>
       <c r="P4" t="n">
-        <v>79.22599736167967</v>
+        <v>77.54373567405838</v>
       </c>
       <c r="Q4" t="n">
-        <v>124.3244028818031</v>
+        <v>122.6421411941818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_5</t>
+          <t>model_20_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9921745572928163</v>
+        <v>0.9746094989946954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6882797006538635</v>
+        <v>0.827104376382144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9820429874261022</v>
+        <v>0.7929410646874393</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9930292040960198</v>
+        <v>0.1917067213912289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.991297487217615</v>
+        <v>0.7963126674819863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05232877141578734</v>
+        <v>0.1697863971349787</v>
       </c>
       <c r="H5" t="n">
-        <v>2.084475077067614</v>
+        <v>1.156153831243748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08066568070412243</v>
+        <v>0.5616183399682214</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04235816018488237</v>
+        <v>0.1648378378736611</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0615119204445024</v>
+        <v>0.3632280889209413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2321638150824203</v>
+        <v>0.744944377843847</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2287548281802754</v>
+        <v>0.4120514496212563</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014446971151724</v>
+        <v>1.046874771086716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2384933948036847</v>
+        <v>0.4295933328957225</v>
       </c>
       <c r="P5" t="n">
-        <v>79.90041787300093</v>
+        <v>77.54642823883076</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.9988233931244</v>
+        <v>122.6448337589542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_6</t>
+          <t>model_20_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9927058692889625</v>
+        <v>0.9741428932312219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6878258166156574</v>
+        <v>0.8247764959180729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9797986254748215</v>
+        <v>0.7837511099769542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.991971500573907</v>
+        <v>-0.09380961569582169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9901296749673654</v>
+        <v>0.7729979000599179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04877588565109115</v>
+        <v>0.1729065920238478</v>
       </c>
       <c r="H6" t="n">
-        <v>2.087510201721041</v>
+        <v>1.171720378625895</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09074770207607671</v>
+        <v>0.5865448040258808</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04878531367422621</v>
+        <v>0.2230640992178639</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06976636097538821</v>
+        <v>0.4048044516218724</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2180328658984259</v>
+        <v>0.8074617034953389</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2208526333351974</v>
+        <v>0.4158203843293975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013466087466531</v>
+        <v>1.04773619711159</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2302547871642533</v>
+        <v>0.4335227189571598</v>
       </c>
       <c r="P6" t="n">
-        <v>80.04103846949536</v>
+        <v>77.51000752159462</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.1394439896188</v>
+        <v>122.608413041718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_1</t>
+          <t>model_20_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9872257617186712</v>
+        <v>0.9733164148132599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6878030561948629</v>
+        <v>0.8223211378550953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9905936245187583</v>
+        <v>0.7741301151596638</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9969518195690784</v>
+        <v>-0.3879768584399081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9957007076363776</v>
+        <v>0.748860667657343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08542139020720459</v>
+        <v>0.1784332570103428</v>
       </c>
       <c r="H7" t="n">
-        <v>2.087662400759696</v>
+        <v>1.18813936929891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04225489501833266</v>
+        <v>0.6126404039572387</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01852232036971259</v>
+        <v>0.283054567468017</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03038866318864696</v>
+        <v>0.4478474857126278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3063637248061168</v>
+        <v>0.8649400338794726</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2922693795237616</v>
+        <v>0.4224136089312735</v>
       </c>
       <c r="N7" t="n">
-        <v>1.023583209134761</v>
+        <v>1.049262003421674</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3047118920911098</v>
+        <v>0.4403966307801941</v>
       </c>
       <c r="P7" t="n">
-        <v>78.92031747747966</v>
+        <v>77.44708131598107</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.0187229976031</v>
+        <v>122.5454868361045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_7</t>
+          <t>model_20_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9930685907358853</v>
+        <v>0.9722409661583189</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6872631980637112</v>
+        <v>0.8198195399199281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9776170470625458</v>
+        <v>0.7643339574364282</v>
       </c>
       <c r="E8" t="n">
-        <v>0.990915706533661</v>
+        <v>-0.6827632714112171</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9889825925262048</v>
+        <v>0.7245546911378145</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04635036566533995</v>
+        <v>0.1856247871179191</v>
       </c>
       <c r="H8" t="n">
-        <v>2.091272434568526</v>
+        <v>1.204867566210173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1005476900702625</v>
+        <v>0.6392111087195591</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05520086416444312</v>
+        <v>0.3431713050862722</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07787427711735279</v>
+        <v>0.4911914349479826</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2052322457351137</v>
+        <v>0.9176062343540232</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2152913506514833</v>
+        <v>0.4308419514368571</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012796447872212</v>
+        <v>1.051247447092334</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2244567491632513</v>
+        <v>0.4491837852753145</v>
       </c>
       <c r="P8" t="n">
-        <v>80.14305219556309</v>
+        <v>77.36805583253064</v>
       </c>
       <c r="Q8" t="n">
-        <v>125.2414577156865</v>
+        <v>122.4664613526541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_0</t>
+          <t>model_20_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9848573105896008</v>
+        <v>0.9710028933350026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6866588875437671</v>
+        <v>0.817331613993284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9920878767874132</v>
+        <v>0.754564776142901</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9977611180704499</v>
+        <v>-0.9723024965008229</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9965234124771599</v>
+        <v>0.7005695191724973</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1012592338130132</v>
+        <v>0.1939037857882372</v>
       </c>
       <c r="H9" t="n">
-        <v>2.095313461797986</v>
+        <v>1.221504338337487</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03554248247762233</v>
+        <v>0.6657086436974013</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01360460422500313</v>
+        <v>0.4022179668691505</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02457354335131273</v>
+        <v>0.533963305283276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3307792913178201</v>
+        <v>0.966894178689107</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3182125607404793</v>
+        <v>0.4403450758078682</v>
       </c>
       <c r="N9" t="n">
-        <v>1.027955734296122</v>
+        <v>1.053533119996918</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3317595282420118</v>
+        <v>0.4590914773249791</v>
       </c>
       <c r="P9" t="n">
-        <v>78.58014275800114</v>
+        <v>77.28078638497526</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.6785482781246</v>
+        <v>122.3791919050987</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.993300401124522</v>
+        <v>0.9696689131571726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6866304933221696</v>
+        <v>0.8149008546418426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9755217321970774</v>
+        <v>0.7449791193703179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9898747097996499</v>
+        <v>-1.252419647531229</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9878693031813158</v>
+        <v>0.6772624118073638</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04480024852913757</v>
+        <v>0.2028241173797997</v>
       </c>
       <c r="H10" t="n">
-        <v>2.095503334088551</v>
+        <v>1.237758837313193</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1099601688563031</v>
+        <v>0.6917083941355883</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0615264985709829</v>
+        <v>0.459343154903197</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08574333371364297</v>
+        <v>0.575526008087899</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1936473874229575</v>
+        <v>1.01174694871032</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2116606919792562</v>
+        <v>0.4503599864328532</v>
       </c>
       <c r="N10" t="n">
-        <v>1.012368490231652</v>
+        <v>1.055995852632912</v>
       </c>
       <c r="O10" t="n">
-        <v>0.220671525834848</v>
+        <v>0.4695327434289926</v>
       </c>
       <c r="P10" t="n">
-        <v>80.21108318410239</v>
+        <v>77.19083218468928</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.3094887042258</v>
+        <v>122.2892377048127</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9934314807449784</v>
+        <v>0.9682899458069937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.685957669890334</v>
+        <v>0.8125577511696924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9735282138163696</v>
+        <v>0.7356958338112549</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9888596490858457</v>
+        <v>-1.520252198809864</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9867995099207598</v>
+        <v>0.6548882163907568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04392371850357913</v>
+        <v>0.2120452784000068</v>
       </c>
       <c r="H11" t="n">
-        <v>2.100002507475304</v>
+        <v>1.253427181020461</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1189153620720012</v>
+        <v>0.7168880050384538</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06769453230844363</v>
+        <v>0.513963105153118</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09330494719022241</v>
+        <v>0.6154250835083066</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1831684069371579</v>
+        <v>1.052478468626537</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2095798618750836</v>
+        <v>0.460483743904176</v>
       </c>
       <c r="N11" t="n">
-        <v>1.012126497086194</v>
+        <v>1.058541638510166</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2185021104852286</v>
+        <v>0.4800874902149366</v>
       </c>
       <c r="P11" t="n">
-        <v>80.25060163996547</v>
+        <v>77.10191089951199</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.3490071600889</v>
+        <v>122.2003164196354</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9934859543657429</v>
+        <v>0.9669039517256462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6852676262217983</v>
+        <v>0.8103229623317572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9716450030952861</v>
+        <v>0.7267980701869231</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9878792881787867</v>
+        <v>-1.773981086270804</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9857796843776688</v>
+        <v>0.6336129968445082</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04355945315069938</v>
+        <v>0.2213134272038929</v>
       </c>
       <c r="H12" t="n">
-        <v>2.104616832664161</v>
+        <v>1.26837122426999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.127375036202113</v>
+        <v>0.7410219417293941</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07365171207847365</v>
+        <v>0.5657068500561293</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1005133741402933</v>
+        <v>0.6533643958927617</v>
       </c>
       <c r="L12" t="n">
-        <v>0.173693876971745</v>
+        <v>1.089409865194834</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2087090154993295</v>
+        <v>0.4704396105813082</v>
       </c>
       <c r="N12" t="n">
-        <v>1.012025930401705</v>
+        <v>1.061100396814191</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2175941903763582</v>
+        <v>0.4904671987479996</v>
       </c>
       <c r="P12" t="n">
-        <v>80.26725706985739</v>
+        <v>77.01635071910046</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.3656625899808</v>
+        <v>122.1147562392239</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9934829953133869</v>
+        <v>0.965538919403771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6845776541391635</v>
+        <v>0.8082094802343354</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9698767273381178</v>
+        <v>0.7183421375472923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9869404072069926</v>
+        <v>-2.012551375370733</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9848142113535456</v>
+        <v>0.6135408217337268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04357924034742922</v>
+        <v>0.2304414046256692</v>
       </c>
       <c r="H13" t="n">
-        <v>2.10923067915777</v>
+        <v>1.28250408878714</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1353184046793348</v>
+        <v>0.7639574738028295</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07935683831450135</v>
+        <v>0.6143592534310691</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1073376214969181</v>
+        <v>0.6891583636169493</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1651305364695295</v>
+        <v>1.122852741551458</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2087564139072839</v>
+        <v>0.4800431278808908</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012031393267594</v>
+        <v>1.063620456485346</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2176436066326674</v>
+        <v>0.5004795576610468</v>
       </c>
       <c r="P13" t="n">
-        <v>80.26634876167532</v>
+        <v>76.93551731745836</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3647542817987</v>
+        <v>122.0339228375818</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.993437798160571</v>
+        <v>0.9642151142168529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6839005079612726</v>
+        <v>0.8062245051876842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.968224575162655</v>
+        <v>0.7103657288376513</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9860476355679975</v>
+        <v>-2.235494862304269</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9839054811573428</v>
+        <v>0.5947268640629413</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04388147391642316</v>
+        <v>0.2392936960061529</v>
       </c>
       <c r="H14" t="n">
-        <v>2.113758758767298</v>
+        <v>1.295777626064067</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1427401280485232</v>
+        <v>0.7855923644278315</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0847817804034651</v>
+        <v>0.6598248329758994</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1137607938532393</v>
+        <v>0.7227085987018655</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1573929537413949</v>
+        <v>1.153105126337149</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2094790536459986</v>
+        <v>0.489176548912714</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0121148341651</v>
+        <v>1.066064404522733</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2183970106411297</v>
+        <v>0.5100018073349827</v>
       </c>
       <c r="P14" t="n">
-        <v>80.25252610886081</v>
+        <v>76.86012725578195</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.3509316289842</v>
+        <v>121.9585327759054</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9933623995390854</v>
+        <v>0.9629464419390968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6832453033655197</v>
+        <v>0.804370860748526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9666873786026871</v>
+        <v>0.7028857148445022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9852043191441942</v>
+        <v>-2.442770282764317</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9830545042071417</v>
+        <v>0.5771863136289687</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04438566484547567</v>
+        <v>0.2477773133692064</v>
       </c>
       <c r="H15" t="n">
-        <v>2.118140114916036</v>
+        <v>1.308172954963965</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1496454529947282</v>
+        <v>0.8058808539606789</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08990620703394592</v>
+        <v>0.7020951735282743</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1197757492770137</v>
+        <v>0.7539880137444765</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1504091242215918</v>
+        <v>1.180447910251451</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2106790564946494</v>
+        <v>0.4977723509489116</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01225403162015</v>
+        <v>1.068406568727821</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2196481000953958</v>
+        <v>0.5189635504596244</v>
       </c>
       <c r="P15" t="n">
-        <v>80.2296774510327</v>
+        <v>76.79044973232126</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.3280829711561</v>
+        <v>121.8888552524447</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.993266178836936</v>
+        <v>0.9617420167742172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6826183783586804</v>
+        <v>0.8026481757052567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9652627654635282</v>
+        <v>0.6959066954055549</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9844122839224372</v>
+        <v>-2.634656649295451</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9822613453833096</v>
+        <v>0.5609067147518567</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04502909312380406</v>
+        <v>0.2558313099926238</v>
       </c>
       <c r="H16" t="n">
-        <v>2.122332365323495</v>
+        <v>1.319692557780542</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1560450357837568</v>
+        <v>0.8248104659863124</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09471902256568362</v>
+        <v>0.7412271750102941</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1253820291747202</v>
+        <v>0.7830188204983033</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1441067415899988</v>
+        <v>1.205143245575137</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2122005964265983</v>
+        <v>0.5057976967055344</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012431669839503</v>
+        <v>1.070630122878368</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2212344151322697</v>
+        <v>0.5273305517998627</v>
       </c>
       <c r="P16" t="n">
-        <v>80.20089296849912</v>
+        <v>76.72647399408758</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.2992984886225</v>
+        <v>121.824879514211</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.993156423278502</v>
+        <v>0.9606072313965309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6820239432889528</v>
+        <v>0.8010536584248118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9639461453928966</v>
+        <v>0.6894242823543364</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9836719182739767</v>
+        <v>-2.811667280992447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9815247245360855</v>
+        <v>0.5458553787333182</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04576302904843095</v>
+        <v>0.2634196250384185</v>
       </c>
       <c r="H17" t="n">
-        <v>2.126307355371885</v>
+        <v>1.330355102176955</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1619594969887676</v>
+        <v>0.8423931027912299</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09921786705415403</v>
+        <v>0.7773255202295006</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1305886820214608</v>
+        <v>0.8098593115103652</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1384161863837595</v>
+        <v>1.227439735577669</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2139229511960579</v>
+        <v>0.5132442157866161</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012634295485842</v>
+        <v>1.072725111267943</v>
       </c>
       <c r="O17" t="n">
-        <v>0.223030094110031</v>
+        <v>0.5350940846146455</v>
       </c>
       <c r="P17" t="n">
-        <v>80.1685574797223</v>
+        <v>76.66801397169704</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.2669629998457</v>
+        <v>121.7664194918205</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.993038778651114</v>
+        <v>0.9595449231509098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6814643227655419</v>
+        <v>0.7995828458261169</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9627332986529222</v>
+        <v>0.6834264745920307</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9829829121771043</v>
+        <v>-2.974448098368693</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9808431560847801</v>
+        <v>0.5319863826473636</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04654971921347754</v>
+        <v>0.2705232851683667</v>
       </c>
       <c r="H18" t="n">
-        <v>2.13004954038875</v>
+        <v>1.340190432796896</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1674077923255997</v>
+        <v>0.8586613156738562</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1034046243515547</v>
+        <v>0.8105219338255552</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1354062083385772</v>
+        <v>0.8345913794366207</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1332822481443603</v>
+        <v>1.247557434305007</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2157538393945228</v>
+        <v>0.5201185299221387</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012851485567174</v>
+        <v>1.074686295721397</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2249389270095657</v>
+        <v>0.5422610525347094</v>
       </c>
       <c r="P18" t="n">
-        <v>80.13446861442227</v>
+        <v>76.61479420489428</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.2328741345457</v>
+        <v>121.7131997250177</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9929175872649088</v>
+        <v>0.9585554770699741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6809407317432544</v>
+        <v>0.7982301025371675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9616185516985123</v>
+        <v>0.6778934169027242</v>
       </c>
       <c r="E19" t="n">
-        <v>0.982344258883366</v>
+        <v>-3.123748176193444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9802143927804492</v>
+        <v>0.5192413818798722</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04736012657106734</v>
+        <v>0.2771397156675642</v>
       </c>
       <c r="H19" t="n">
-        <v>2.133550795965701</v>
+        <v>1.349236233398911</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1724154082372259</v>
+        <v>0.8736689591243837</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1072854119820355</v>
+        <v>0.8409691770159976</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1398504923426998</v>
+        <v>0.8573190680701906</v>
       </c>
       <c r="L19" t="n">
-        <v>0.128661429802746</v>
+        <v>1.265699461109123</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2176238189423836</v>
+        <v>0.5264406098199151</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013075223510938</v>
+        <v>1.076512965409278</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2268885154581702</v>
+        <v>0.5488522764622437</v>
       </c>
       <c r="P19" t="n">
-        <v>80.09994923175795</v>
+        <v>76.5664670225289</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.1983547518814</v>
+        <v>121.6648725426523</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9927959991451677</v>
+        <v>0.9576381136256608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6804533221831696</v>
+        <v>0.796989229899195</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9605962219138653</v>
+        <v>0.6728058241406535</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9817540281794627</v>
+        <v>-3.260379384587578</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9796358340829426</v>
+        <v>0.5075594232912599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04817318688763759</v>
+        <v>0.2832741292437573</v>
       </c>
       <c r="H20" t="n">
-        <v>2.136810105938303</v>
+        <v>1.357533954442727</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1770078719136464</v>
+        <v>0.8874683413976254</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1108719589196238</v>
+        <v>0.868832817075605</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1439399154166351</v>
+        <v>0.8781510728912072</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1244986891538367</v>
+        <v>1.282058234549522</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2194839103160812</v>
+        <v>0.5322350319583984</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013299693885844</v>
+        <v>1.078206559460319</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2288277947725661</v>
+        <v>0.5548933791472694</v>
       </c>
       <c r="P20" t="n">
-        <v>80.06590540269947</v>
+        <v>76.52268039122083</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.1643109228229</v>
+        <v>121.6210859113443</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.992676412596353</v>
+        <v>0.9567905762666726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6800015011796529</v>
+        <v>0.7958533746577594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9596604363450079</v>
+        <v>0.668137136200461</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9812105220339989</v>
+        <v>-3.385177924747691</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9791048489661075</v>
+        <v>0.4968731869048428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04897286269020684</v>
+        <v>0.2889416154658623</v>
       </c>
       <c r="H21" t="n">
-        <v>2.139831435069264</v>
+        <v>1.365129423672339</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1812115655733982</v>
+        <v>0.9001315030566117</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1141745832810507</v>
+        <v>0.8942833831933759</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1476930744272245</v>
+        <v>0.8972074431249938</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1207406642360574</v>
+        <v>1.296801612474889</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2212981307878737</v>
+        <v>0.5375328971010632</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013520469052887</v>
+        <v>1.079771243815374</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2307192503657969</v>
+        <v>0.5604167853771503</v>
       </c>
       <c r="P21" t="n">
-        <v>80.03297791387352</v>
+        <v>76.48306126777699</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.1313834339969</v>
+        <v>121.5814667879004</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9925605149520196</v>
+        <v>0.956010102957928</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6795842110672661</v>
+        <v>0.7948156798927599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9588055250385423</v>
+        <v>0.6638631302214858</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9807111396005206</v>
+        <v>-3.498969204647166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9786185540086582</v>
+        <v>0.4871160849034535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04974787077152411</v>
+        <v>0.2941606440751866</v>
       </c>
       <c r="H22" t="n">
-        <v>2.142621855972239</v>
+        <v>1.372068493344035</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1850519595250033</v>
+        <v>0.911724145215729</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1172090891541485</v>
+        <v>0.9174892034617201</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1511303502443578</v>
+        <v>0.9146069223638802</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1173501447245514</v>
+        <v>1.310095278408218</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2230423071337008</v>
+        <v>0.5423657843883467</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013734433934733</v>
+        <v>1.081212117616133</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2325376799096086</v>
+        <v>0.5654554186817092</v>
       </c>
       <c r="P22" t="n">
-        <v>80.00157522971151</v>
+        <v>76.44725850490235</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.0999807498349</v>
+        <v>121.5456640250258</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9924494994977676</v>
+        <v>0.9552932549485699</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6792000172120836</v>
+        <v>0.7938692739892202</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9580256666258</v>
+        <v>0.6599566784454628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9802531475555233</v>
+        <v>-3.602582459940318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9781738505741736</v>
+        <v>0.4782207650619803</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05049023162528618</v>
+        <v>0.2989542100145461</v>
       </c>
       <c r="H23" t="n">
-        <v>2.145190962050894</v>
+        <v>1.378397113978804</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1885552042578238</v>
+        <v>0.9223198481169543</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1199920856258027</v>
+        <v>0.9386193865642839</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1542736449418133</v>
+        <v>0.9304696173406192</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1142978752491029</v>
+        <v>1.32206908470498</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2247003151428279</v>
+        <v>0.5467670527880645</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013939385542583</v>
+        <v>1.082535529325717</v>
       </c>
       <c r="O23" t="n">
-        <v>0.234266272752234</v>
+        <v>0.5700440581890847</v>
       </c>
       <c r="P23" t="n">
-        <v>79.97195078914817</v>
+        <v>76.41492972216643</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.0703563092716</v>
+        <v>121.5133352422899</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9923441104823431</v>
+        <v>0.9546366243385864</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6788472212120326</v>
+        <v>0.7930073345563879</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9573150069192751</v>
+        <v>0.6563942452443563</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9798342635262697</v>
+        <v>-3.696777944707308</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9777679712182594</v>
+        <v>0.4701252724595214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05119496845670204</v>
+        <v>0.3033451019270109</v>
       </c>
       <c r="H24" t="n">
-        <v>2.147550110527711</v>
+        <v>1.384160906935019</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1917475976885192</v>
+        <v>0.931982448852503</v>
       </c>
       <c r="J24" t="n">
-        <v>0.122537441572873</v>
+        <v>0.9578289735512956</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1571425196306961</v>
+        <v>0.9449060099749265</v>
       </c>
       <c r="L24" t="n">
-        <v>0.111546374804595</v>
+        <v>1.332855170666449</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2262630514615721</v>
+        <v>0.5507677386403554</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014133949878751</v>
+        <v>1.08374777045184</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2358955379913773</v>
+        <v>0.574215061520669</v>
       </c>
       <c r="P24" t="n">
-        <v>79.9442280481915</v>
+        <v>76.38576834266077</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.0426335683149</v>
+        <v>121.4841738627842</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.992244865897962</v>
+        <v>0.9540361864793762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6785240387215165</v>
+        <v>0.7922234696721446</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9566688147917618</v>
+        <v>0.6531486849834971</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9794517987014595</v>
+        <v>-3.782344801248731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9773981955848312</v>
+        <v>0.4627643136247248</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05185861744943704</v>
+        <v>0.3073602326563123</v>
       </c>
       <c r="H25" t="n">
-        <v>2.149711233329911</v>
+        <v>1.38940261502532</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1946503927730014</v>
+        <v>0.9407855761515933</v>
       </c>
       <c r="J25" t="n">
-        <v>0.12486149560308</v>
+        <v>0.9752788967403275</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1597562025880813</v>
+        <v>0.9580325357000961</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1090653540341918</v>
+        <v>1.342577126643427</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2277248722679124</v>
+        <v>0.55440078702714</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014317170649916</v>
+        <v>1.084856271114998</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2374195915358298</v>
+        <v>0.578002776298726</v>
       </c>
       <c r="P25" t="n">
-        <v>79.91846831702563</v>
+        <v>76.35946964602331</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.016873837149</v>
+        <v>121.4578751661467</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9921519282239311</v>
+        <v>0.9534881904188123</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6782285822837705</v>
+        <v>0.7915113277294357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9560811404943258</v>
+        <v>0.6501959886863156</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9791030360468727</v>
+        <v>-3.859971045011692</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9770615511896401</v>
+        <v>0.4560802898499153</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05248009210362072</v>
+        <v>0.3110246848365928</v>
       </c>
       <c r="H26" t="n">
-        <v>2.15168695188957</v>
+        <v>1.394164711475328</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1972903167046637</v>
+        <v>0.9487943509979926</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1269807578211945</v>
+        <v>0.9911094653257354</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1621357042070851</v>
+        <v>0.9699519081618639</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1068283351548297</v>
+        <v>1.351329836078872</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2290853380372055</v>
+        <v>0.5576958712744724</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014488747894281</v>
+        <v>1.085867956149885</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2388379751494741</v>
+        <v>0.581438139104232</v>
       </c>
       <c r="P26" t="n">
-        <v>79.89464275864917</v>
+        <v>76.3357659949756</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.9930482787726</v>
+        <v>121.434171515099</v>
       </c>
     </row>
   </sheetData>
